--- a/xlsx/a69_f33UPPachuca.xlsx
+++ b/xlsx/a69_f33UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>45749</t>
   </si>
@@ -237,7 +237,88 @@
     <t>Dirección de Vinculación y Extensión y Abogado General (UPP)</t>
   </si>
   <si>
-    <t>En este trimestre julio - septiembre 2020 se han realizado la gestión de convenios, de los cuales aún están en revisión para su firma, esto por áreas responsables de su ejecución.</t>
+    <t>Específico de Colaboración</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro del “DIF ARRIAGA”.</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de “FISIORIVA”.</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro de “IBE”.</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional y/o Servicio Social dentro de “EDUCARUNO S.A. DE C.V.”.</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro de “ADH”.</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Los criterios e hipervínculos que se encuentran en blanco respecto a los convenios descritos en este rubro es debido a que no se públican en el DOF, así mismo no generan costo para la UPP, los campos vacios no aplican para la celebración de los convenios.</t>
+  </si>
+  <si>
+    <t>MAC850101GX8</t>
+  </si>
+  <si>
+    <t>RIVI950122I92</t>
+  </si>
+  <si>
+    <t>SAGP670804HLA</t>
+  </si>
+  <si>
+    <t>ADH060609DP8</t>
+  </si>
+  <si>
+    <t>EDU091005MR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Lesvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Los Santos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gómez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Izamary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valencia    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Juan </t>
+  </si>
+  <si>
+    <t>Samia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gracia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Magdalena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruz </t>
+  </si>
+  <si>
+    <t>Nieto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Eduardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martínez </t>
+  </si>
+  <si>
+    <t>Olivo</t>
   </si>
 </sst>
 </file>
@@ -264,13 +345,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -319,37 +398,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="Q9" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,11 +724,12 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
     <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
@@ -656,9 +738,9 @@
     <col min="15" max="15" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.85546875" customWidth="1"/>
+    <col min="20" max="20" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -667,38 +749,38 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -825,125 +907,347 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:20" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="5" t="s">
+      <c r="B8" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44116</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6">
+        <v>44116</v>
+      </c>
+      <c r="M8" s="6">
+        <v>44481</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="S8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="T8" s="7" t="s">
+      <c r="R8" s="6">
+        <v>44206</v>
+      </c>
+      <c r="S8" s="6">
+        <v>44206</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>70</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44126</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6">
+        <v>44126</v>
+      </c>
+      <c r="M9" s="6">
+        <v>45221</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="6">
+        <v>44206</v>
+      </c>
+      <c r="S9" s="6">
+        <v>44206</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44139</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6">
+        <v>44139</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="6">
+        <v>44206</v>
+      </c>
+      <c r="S10" s="6">
+        <v>44206</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44140</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6">
+        <v>44140</v>
+      </c>
+      <c r="M11" s="6">
+        <v>45235</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="6">
+        <v>44206</v>
+      </c>
+      <c r="S11" s="6">
+        <v>44206</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="6">
+        <v>44155</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6">
+        <v>44155</v>
+      </c>
+      <c r="M12" s="6">
+        <v>44520</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="6">
+        <v>44206</v>
+      </c>
+      <c r="S12" s="6">
+        <v>44206</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -957,12 +1261,12 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D120">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -970,27 +1274,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1001,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD149"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,20 +1354,105 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f33UPPachuca.xlsx
+++ b/xlsx/a69_f33UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="Tabla_378802" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$T$7</definedName>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
   <si>
     <t>45749</t>
   </si>
@@ -237,95 +238,192 @@
     <t>Dirección de Vinculación y Extensión y Abogado General (UPP)</t>
   </si>
   <si>
+    <t>Dirección de Vinculación y Extensión</t>
+  </si>
+  <si>
     <t>Específico de Colaboración</t>
   </si>
   <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro del “DIF ARRIAGA”.</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de “FISIORIVA”.</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro de “IBE”.</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional y/o Servicio Social dentro de “EDUCARUNO S.A. DE C.V.”.</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro de “ADH”.</t>
-  </si>
-  <si>
-    <t>Dirección de Vinculación y Extensión</t>
+    <t>General de Colaboración</t>
   </si>
   <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco respecto a los convenios descritos en este rubro es debido a que no se públican en el DOF, así mismo no generan costo para la UPP, los campos vacios no aplican para la celebración de los convenios.</t>
   </si>
   <si>
-    <t>MAC850101GX8</t>
-  </si>
-  <si>
-    <t>RIVI950122I92</t>
-  </si>
-  <si>
-    <t>SAGP670804HLA</t>
-  </si>
-  <si>
-    <t>ADH060609DP8</t>
-  </si>
-  <si>
-    <t>EDU091005MR8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Lesvia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Los Santos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gómez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Izamary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rivera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valencia    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Juan </t>
-  </si>
-  <si>
-    <t>Samia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gracia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Magdalena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cruz </t>
-  </si>
-  <si>
-    <t>Nieto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Eduardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martínez </t>
-  </si>
-  <si>
-    <t>Olivo</t>
+    <t>JULIA CRISTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOLANO </t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>ACT6808066SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS MANUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA </t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>BIO-030729-6VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARQUEZ </t>
+  </si>
+  <si>
+    <t>MAGALDI</t>
+  </si>
+  <si>
+    <t>EMA960131KX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLORENCIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO </t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
+    <t>FAS011101EA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSAS GARCIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA </t>
+  </si>
+  <si>
+    <t>NALLELY</t>
+  </si>
+  <si>
+    <t>OFM081208FEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CISNEROS </t>
+  </si>
+  <si>
+    <t>BALAM</t>
+  </si>
+  <si>
+    <t>CFE370814-QI0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALEANA </t>
+  </si>
+  <si>
+    <t>SALGADO</t>
+  </si>
+  <si>
+    <t>UTC-970703-GT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDALECIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDINA </t>
+  </si>
+  <si>
+    <t>HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>UPR140228U77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTO ALEJANDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCÍA </t>
+  </si>
+  <si>
+    <t>SEVILLA</t>
+  </si>
+  <si>
+    <t>UTF9412286C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ </t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>UTN981009IKA</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar, su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de “BIOGARMED”.</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de FASF A.C.</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro de “OFR”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para lograr conjuntamente el máximo aprovechamiento de sus recursos humanos y materiales en el desarrollo de actividades académicas, científicas y culturales de interés y beneficio mutuo.
+</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de AUTOTRANSPORTES DE CARGA TRESGUERRAS S.A. DE C.V</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de ambas Partes puedan realizar su Estancia, Estadía Profesional y/o Servicio Social dentro de sus instalaciones a través de la participación en proyectos.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gDiltS5kwq1bhvBjE_-J-U_cutXLyj99/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SX49s-weDJuZ1_4G7wqmLjcWa8l2_7ie/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1E06eutNZnOFyRwpOZbs7XWwAc67XKGdB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12Cs3sLHjVuMnkZhT16Kv3GzrcGDwuzyA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GyovZl4MqjicCW9hHB1mpkbBGyqU-rbw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dRhwHpphuQE849Mp4xg4zD0USTanJbT2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IKF3l6Jb9rT_dlhXDoW7bBHs-0cLp5FY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ihmhS5-ypjFV3pqN_f8Q914h2fHnJ_Cj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i81rthhBJqq593ZfH88kSNWGxSMwqLI8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El presente convenio tiene por objeto establecer las bases de colaboración entre “LA PARTES”, para el desarrollo de programas, conjunto de interés común, aprovechando las experiencias, recursos académicos, materiales y de servicio de ambas partes. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -345,11 +443,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -394,46 +502,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -713,95 +855,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q9" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="R14" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.5703125" customWidth="1"/>
     <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.5703125" customWidth="1"/>
     <col min="16" max="16" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.5703125" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="78.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
@@ -816,10 +958,10 @@
       <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N4" t="s">
@@ -834,10 +976,10 @@
       <c r="Q4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="T4" t="s">
@@ -845,25 +987,25 @@
       </c>
     </row>
     <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
@@ -878,10 +1020,10 @@
       <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N5" t="s">
@@ -896,10 +1038,10 @@
       <c r="Q5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="T5" t="s">
@@ -907,347 +1049,621 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="5" t="s">
+    <row r="8" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44203</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="6">
-        <v>44116</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="7">
+        <v>44203</v>
+      </c>
+      <c r="M8" s="8">
+        <v>45298</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S8" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6">
-        <v>44116</v>
-      </c>
-      <c r="M8" s="6">
-        <v>44481</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="7" t="s">
+      <c r="F9" s="7">
+        <v>44207</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="7">
+        <v>44207</v>
+      </c>
+      <c r="M9" s="8">
+        <v>44937</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="6">
-        <v>44206</v>
-      </c>
-      <c r="S8" s="6">
-        <v>44206</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C9" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="R9" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S9" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44215</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="6">
-        <v>44126</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="7">
+        <v>44215</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S10" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44216</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="7">
+        <v>44216</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S11" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6">
-        <v>44126</v>
-      </c>
-      <c r="M9" s="6">
-        <v>45221</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="7" t="s">
+      <c r="F12" s="7">
+        <v>44237</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="7">
+        <v>44237</v>
+      </c>
+      <c r="M12" s="8">
+        <v>45332</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="6">
-        <v>44206</v>
-      </c>
-      <c r="S9" s="6">
-        <v>44206</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C10" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="R12" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S12" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44237</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="6">
-        <v>44139</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="5">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="7">
+        <v>44237</v>
+      </c>
+      <c r="M13" s="7">
+        <v>45332</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S13" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6">
-        <v>44139</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="7" t="s">
+    </row>
+    <row r="14" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44243</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="7">
+        <v>44243</v>
+      </c>
+      <c r="M14" s="8">
+        <v>45367</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="6">
-        <v>44206</v>
-      </c>
-      <c r="S10" s="6">
-        <v>44206</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C11" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="R14" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S14" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C15" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7">
+        <v>44265</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="6">
-        <v>44140</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="5">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6">
-        <v>44140</v>
-      </c>
-      <c r="M11" s="6">
-        <v>45235</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="7" t="s">
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="7">
+        <v>44265</v>
+      </c>
+      <c r="M15" s="8">
+        <v>45361</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R11" s="6">
-        <v>44206</v>
-      </c>
-      <c r="S11" s="6">
-        <v>44206</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44105</v>
-      </c>
-      <c r="C12" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="R15" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S15" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44271</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="6">
-        <v>44155</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6">
-        <v>44155</v>
-      </c>
-      <c r="M12" s="6">
-        <v>44520</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="7" t="s">
+      <c r="H16" s="3">
+        <v>9</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="7">
+        <v>44271</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="6">
-        <v>44206</v>
-      </c>
-      <c r="S12" s="6">
-        <v>44206</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>77</v>
+      <c r="R16" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S16" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44286</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44285</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="7">
+        <v>44285</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="7">
+        <v>44298</v>
+      </c>
+      <c r="S17" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1261,12 +1677,17 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D120">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D17">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="O8" r:id="rId1"/>
+    <hyperlink ref="O10" r:id="rId2"/>
+    <hyperlink ref="O13" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1274,32 +1695,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1310,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,105 +1770,190 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>82</v>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f33UPPachuca.xlsx
+++ b/xlsx/a69_f33UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,15 +17,14 @@
     <sheet name="Tabla_378802" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$T$7</definedName>
-    <definedName name="Hidden_13">Hidden_1!$A$1:$A$4</definedName>
+    <definedName name="Hidden_13">Hidden_1!$A$1:$A$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
   <si>
     <t>45749</t>
   </si>
@@ -208,6 +207,12 @@
     <t>De concertación con el sector social</t>
   </si>
   <si>
+    <t>De coordinación con el sector público</t>
+  </si>
+  <si>
+    <t>De colaboración con el sector público</t>
+  </si>
+  <si>
     <t>49151</t>
   </si>
   <si>
@@ -235,205 +240,272 @@
     <t>Denominación o razón social con quien se celebra</t>
   </si>
   <si>
+    <t>General de Colaboración</t>
+  </si>
+  <si>
+    <t>Específico de Colaboración</t>
+  </si>
+  <si>
+    <t>Carta Intención</t>
+  </si>
+  <si>
+    <t>Dirección de Vinculación y Extensión</t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS PARTES convienen que el objeto del presente instrumento es establecer las bases generales y mecanismos para el desarrollo de proyectos y acciones de interés y beneficio mutuo en el ámbito de la metrología, evaluación de la conformidad, así como de investigación y desarrollo tecnológico, formación de recursos humanos y transferencia de conocimientos. </t>
+  </si>
+  <si>
+    <t>Iniciar las relaciones y acuerdos de colaboración en los ámbitos de desarrollo académico, científico, cultural y productivo con la Universidad Politécnica de Pachuca (UPP) y sus investigadores del Laboratorio Nacional en Vehículos Autónomos y Exoesqueletos (LANAVEX).</t>
+  </si>
+  <si>
+    <t>El objeto del presente convenio, es crear un marco de colaboración académica, científica y tecnológica entre las “PARTES”, para realizar conjuntamente actividades que permitan conseguir el máximo desarrollo en la formación y especialización de recursos humanos; investigaciones conjuntas; desarrollo tecnológico y académico; intercambio de información; así como, asesoría técnica o académica y publicaciones en los campos afines, de interés para las “PARTES”, cuyos compromisos y términos se definirán en convenios específicos de colaboración derivados del presente instrumento.</t>
+  </si>
+  <si>
     <t>Dirección de Vinculación y Extensión y Abogado General (UPP)</t>
   </si>
   <si>
-    <t>Dirección de Vinculación y Extensión</t>
-  </si>
-  <si>
-    <t>Específico de Colaboración</t>
-  </si>
-  <si>
-    <t>General de Colaboración</t>
-  </si>
-  <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco respecto a los convenios descritos en este rubro es debido a que no se públican en el DOF, así mismo no generan costo para la UPP, los campos vacios no aplican para la celebración de los convenios.</t>
   </si>
   <si>
-    <t>JULIA CRISTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SOLANO </t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>ACT6808066SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS MANUEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA </t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>BIO-030729-6VA</t>
+    <t>CHC940704KH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDER </t>
+  </si>
+  <si>
+    <t>LÓPEZ</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>TNM140723GFA</t>
+  </si>
+  <si>
+    <t>FRANCISCO RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SALDAÑA </t>
+  </si>
+  <si>
+    <t>IBARRA</t>
+  </si>
+  <si>
+    <t>LOYOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTIGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOLFO </t>
+  </si>
+  <si>
+    <t>NPB050622899</t>
   </si>
   <si>
     <t xml:space="preserve">JORGE </t>
   </si>
   <si>
-    <t xml:space="preserve">MARQUEZ </t>
-  </si>
-  <si>
-    <t>MAGALDI</t>
-  </si>
-  <si>
-    <t>EMA960131KX3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLORENCIO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO </t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>FAS011101EA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSAS GARCIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA </t>
-  </si>
-  <si>
-    <t>NALLELY</t>
-  </si>
-  <si>
-    <t>OFM081208FEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOÉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CISNEROS </t>
-  </si>
-  <si>
-    <t>BALAM</t>
-  </si>
-  <si>
-    <t>CFE370814-QI0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENÉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALEANA </t>
-  </si>
-  <si>
-    <t>SALGADO</t>
-  </si>
-  <si>
-    <t>UTC-970703-GT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDALECIO </t>
+    <t xml:space="preserve">HUERTA </t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>SOPP891021LZ6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO RAFAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCOTT </t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>OCM200610A93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDGAR EDUARDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">URIBE </t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HSE-061213-HH7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSÉ ARTURO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÁNCHEZ </t>
+  </si>
+  <si>
+    <t>GONZÁLEZ</t>
+  </si>
+  <si>
+    <t>LBY0701173R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIO ALBERTO </t>
+  </si>
+  <si>
+    <t>MAYORGA G</t>
+  </si>
+  <si>
+    <t>ÓMEZ</t>
+  </si>
+  <si>
+    <t>BEE190329T96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÁLVARO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ </t>
+  </si>
+  <si>
+    <t>MEJÍA</t>
+  </si>
+  <si>
+    <t>SCA0307182L9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISRAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVEZ </t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>BAP011109Q94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERGARA </t>
+  </si>
+  <si>
+    <t>MENESES</t>
+  </si>
+  <si>
+    <t>ANAYELI</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CPL7509051LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTO </t>
   </si>
   <si>
     <t xml:space="preserve">MEDINA </t>
   </si>
   <si>
-    <t>HERNÁNDEZ</t>
-  </si>
-  <si>
-    <t>UPR140228U77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBERTO ALEJANDRO </t>
+    <t>UBALDO</t>
+  </si>
+  <si>
+    <t>UAQ510111MQ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGARITA TERESA DE JESÚS </t>
   </si>
   <si>
     <t xml:space="preserve">GARCÍA </t>
   </si>
   <si>
-    <t>SEVILLA</t>
-  </si>
-  <si>
-    <t>UTF9412286C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ </t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>UTN981009IKA</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar, su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de “BIOGARMED”.</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de FASF A.C.</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas dentro de “OFR”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para lograr conjuntamente el máximo aprovechamiento de sus recursos humanos y materiales en el desarrollo de actividades académicas, científicas y culturales de interés y beneficio mutuo.
-</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas, dentro de AUTOTRANSPORTES DE CARGA TRESGUERRAS S.A. DE C.V</t>
-  </si>
-  <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de ambas Partes puedan realizar su Estancia, Estadía Profesional y/o Servicio Social dentro de sus instalaciones a través de la participación en proyectos.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gDiltS5kwq1bhvBjE_-J-U_cutXLyj99/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1SX49s-weDJuZ1_4G7wqmLjcWa8l2_7ie/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1E06eutNZnOFyRwpOZbs7XWwAc67XKGdB/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12Cs3sLHjVuMnkZhT16Kv3GzrcGDwuzyA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GyovZl4MqjicCW9hHB1mpkbBGyqU-rbw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dRhwHpphuQE849Mp4xg4zD0USTanJbT2/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1IKF3l6Jb9rT_dlhXDoW7bBHs-0cLp5FY/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ihmhS5-ypjFV3pqN_f8Q914h2fHnJ_Cj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1i81rthhBJqq593ZfH88kSNWGxSMwqLI8/view?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El presente convenio tiene por objeto establecer las bases de colaboración entre “LA PARTES”, para el desarrollo de programas, conjunto de interés común, aprovechando las experiencias, recursos académicos, materiales y de servicio de ambas partes. </t>
+    <t xml:space="preserve">GASCA </t>
+  </si>
+  <si>
+    <t>ISS600101-5A3</t>
+  </si>
+  <si>
+    <t>UAE610303-799</t>
+  </si>
+  <si>
+    <t>VÍCTOR</t>
+  </si>
+  <si>
+    <t>RAVELERO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>UPZ040210-R31</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-CdyxGdTGtvIMEwtwM3xC18nxJIvaz5D/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fUOMq2YzDo4a0k_Oc5U6eU2YqYQ0Wimu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kPnJGNmv-J3fJfGpDo4_R8R2TwugvwLK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/195HPQ9gw5WfT2B8fLubv0fA5oBcm3HI0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g1nZxsf43ZVBn3c14td3CDlTt2f_M-DY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iJb_PDHTHviTBg-b9YcIak-OCQ3nkKWv/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15gwaTl55gSBI4ZFhMIX5mUT0l4_zLDrh/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1md4RWgeg7HXeJl48m2dn67RYEdnFAuOF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VnVjIlz8DHyUmCPgT2RLj3H2lb9lVNXy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GbblIS8ozoN5f9aFOymSOs3fIZgoDZT4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17pLgEzNdVnKNFteoyHlGXHYLOX25s5-1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f1cQ3Zk1y537nWBAQUfxv9zLbAKj7WJ-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WWcIT339j-3b_hc7f0O239LF17AqL7DV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1obqlCdFw6SMC2MV3xLRoPcAqVBAO5R0M/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1h3HnTxI-xjI-O8EqWalGNsKUufPvwbBe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>El Convenio en mención no sé tiene al momento signado, derivado de los cambios de agenda del Subdelegado del ISSSTE, ante la contingencia. Cabe señalar, dicho convenio se ha reagendado para firma el día dos de julio de 2021.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,13 +515,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -502,42 +572,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -545,39 +599,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -855,95 +894,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R14" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="L21" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="78.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.28515625" customWidth="1"/>
     <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="57.5703125" customWidth="1"/>
+    <col min="15" max="15" width="69.7109375" customWidth="1"/>
     <col min="16" max="16" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="78.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
@@ -958,10 +997,10 @@
       <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" t="s">
         <v>8</v>
       </c>
       <c r="N4" t="s">
@@ -976,10 +1015,10 @@
       <c r="Q4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" t="s">
         <v>13</v>
       </c>
       <c r="T4" t="s">
@@ -987,25 +1026,25 @@
       </c>
     </row>
     <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
@@ -1020,10 +1059,10 @@
       <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
       <c r="N5" t="s">
@@ -1038,10 +1077,10 @@
       <c r="Q5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" t="s">
         <v>33</v>
       </c>
       <c r="T5" t="s">
@@ -1049,312 +1088,316 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44286</v>
+      <c r="B8" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44377</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="7">
-        <v>44203</v>
+      <c r="F8" s="4">
+        <v>44295</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>118</v>
+      <c r="I8" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="7">
-        <v>44203</v>
-      </c>
-      <c r="M8" s="8">
-        <v>45298</v>
+      <c r="L8" s="4">
+        <v>44295</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45025</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="13" t="s">
-        <v>120</v>
+      <c r="O8" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S8" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S8" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2021</v>
       </c>
-      <c r="B9" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C9" s="7">
-        <v>44286</v>
+      <c r="B9" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44377</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="7">
-        <v>44207</v>
+        <v>72</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44295</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>114</v>
+      <c r="I9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="7">
-        <v>44207</v>
-      </c>
-      <c r="M9" s="8">
-        <v>44937</v>
+      <c r="L9" s="4">
+        <v>44295</v>
+      </c>
+      <c r="M9" s="4">
+        <v>45025</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="13" t="s">
-        <v>121</v>
+      <c r="O9" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R9" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S9" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S9" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2021</v>
       </c>
-      <c r="B10" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C10" s="7">
-        <v>44286</v>
+      <c r="B10" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44377</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="7">
-        <v>44215</v>
+      <c r="F10" s="4">
+        <v>44298</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>115</v>
+      <c r="I10" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="7">
-        <v>44215</v>
-      </c>
-      <c r="M10" s="8"/>
+      <c r="L10" s="4">
+        <v>44298</v>
+      </c>
+      <c r="M10" s="4">
+        <v>45394</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="13" t="s">
-        <v>128</v>
+      <c r="O10" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S10" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S10" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
-      <c r="B11" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C11" s="7">
-        <v>44286</v>
+      <c r="B11" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44377</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7">
-        <v>44216</v>
+        <v>73</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44301</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>116</v>
+      <c r="I11" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="7">
-        <v>44216</v>
-      </c>
-      <c r="M11" s="10"/>
+      <c r="L11" s="4">
+        <v>44301</v>
+      </c>
+      <c r="M11" s="4">
+        <v>44666</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="13" t="s">
-        <v>122</v>
+      <c r="O11" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S11" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S11" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2021</v>
       </c>
-      <c r="B12" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C12" s="7">
-        <v>44286</v>
+      <c r="B12" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44377</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>56</v>
@@ -1362,53 +1405,51 @@
       <c r="E12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7">
-        <v>44237</v>
+      <c r="F12" s="4">
+        <v>44322</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>117</v>
+      <c r="I12" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="7">
-        <v>44237</v>
-      </c>
-      <c r="M12" s="8">
-        <v>45332</v>
-      </c>
+      <c r="L12" s="4">
+        <v>44322</v>
+      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="13" t="s">
-        <v>123</v>
+      <c r="O12" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S12" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S12" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2021</v>
       </c>
-      <c r="B13" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C13" s="7">
-        <v>44286</v>
+      <c r="B13" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44377</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -1416,53 +1457,51 @@
       <c r="E13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="7">
-        <v>44237</v>
+      <c r="F13" s="4">
+        <v>44322</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>117</v>
+      <c r="I13" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="7">
-        <v>44237</v>
-      </c>
-      <c r="M13" s="7">
-        <v>45332</v>
-      </c>
+      <c r="L13" s="4">
+        <v>44322</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="13" t="s">
-        <v>127</v>
+      <c r="O13" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R13" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S13" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S13" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2021</v>
       </c>
-      <c r="B14" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C14" s="7">
-        <v>44286</v>
+      <c r="B14" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C14" s="4">
+        <v>44377</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -1470,107 +1509,103 @@
       <c r="E14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7">
-        <v>44243</v>
+      <c r="F14" s="4">
+        <v>44327</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>119</v>
+      <c r="I14" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="7">
-        <v>44243</v>
-      </c>
-      <c r="M14" s="8">
-        <v>45367</v>
-      </c>
+      <c r="L14" s="4">
+        <v>44327</v>
+      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="13" t="s">
-        <v>127</v>
+      <c r="O14" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S14" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S14" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2021</v>
       </c>
-      <c r="B15" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C15" s="7">
-        <v>44286</v>
+      <c r="B15" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44377</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="7">
-        <v>44265</v>
+        <v>71</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44336</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>117</v>
+      <c r="I15" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="7">
-        <v>44265</v>
-      </c>
-      <c r="M15" s="8">
-        <v>45361</v>
-      </c>
+      <c r="L15" s="4">
+        <v>44336</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="13" t="s">
-        <v>126</v>
+      <c r="O15" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R15" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S15" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S15" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2021</v>
       </c>
-      <c r="B16" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C16" s="7">
-        <v>44286</v>
+      <c r="B16" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C16" s="4">
+        <v>44377</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
@@ -1578,92 +1613,414 @@
       <c r="E16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="7">
-        <v>44271</v>
+      <c r="F16" s="4">
+        <v>44344</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>129</v>
+      <c r="I16" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="7">
-        <v>44271</v>
-      </c>
-      <c r="M16" s="11"/>
+      <c r="L16" s="4">
+        <v>44344</v>
+      </c>
+      <c r="M16" s="4">
+        <v>45074</v>
+      </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="13" t="s">
-        <v>125</v>
+      <c r="O16" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R16" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S16" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S16" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2021</v>
       </c>
-      <c r="B17" s="7">
-        <v>44197</v>
-      </c>
-      <c r="C17" s="7">
-        <v>44286</v>
+      <c r="B17" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C17" s="4">
+        <v>44377</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="7">
-        <v>44285</v>
+        <v>71</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44348</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>117</v>
+      <c r="I17" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="7">
-        <v>44285</v>
-      </c>
-      <c r="M17" s="8"/>
+      <c r="L17" s="4">
+        <v>44348</v>
+      </c>
+      <c r="M17" s="4">
+        <v>45444</v>
+      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="13" t="s">
-        <v>124</v>
+      <c r="O17" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="7">
-        <v>44298</v>
-      </c>
-      <c r="S17" s="7">
-        <v>44298</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>73</v>
+      <c r="Q17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S17" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44349</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4">
+        <v>44349</v>
+      </c>
+      <c r="M18" s="4">
+        <v>45079</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S18" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44361</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="4">
+        <v>44361</v>
+      </c>
+      <c r="M19" s="4">
+        <v>46187</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S19" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C20" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44362</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="4">
+        <v>44362</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S20" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44367</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4">
+        <v>44367</v>
+      </c>
+      <c r="M21" s="4">
+        <v>44732</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S21" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44370</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4">
+        <v>44370</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R22" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S22" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44370</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="3">
+        <v>16</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4">
+        <v>44370</v>
+      </c>
+      <c r="M23" s="4">
+        <v>45466</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S23" s="4">
+        <v>44386</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1677,25 +2034,39 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D17">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D23">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O8" r:id="rId1"/>
-    <hyperlink ref="O10" r:id="rId2"/>
-    <hyperlink ref="O13" r:id="rId3"/>
+    <hyperlink ref="O9" r:id="rId2"/>
+    <hyperlink ref="O10" r:id="rId3"/>
+    <hyperlink ref="O11" r:id="rId4"/>
+    <hyperlink ref="O12" r:id="rId5"/>
+    <hyperlink ref="O13" r:id="rId6"/>
+    <hyperlink ref="O14" r:id="rId7"/>
+    <hyperlink ref="O15" r:id="rId8"/>
+    <hyperlink ref="O16" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
+    <hyperlink ref="O18" r:id="rId11"/>
+    <hyperlink ref="O19" r:id="rId12"/>
+    <hyperlink ref="O20" r:id="rId13"/>
+    <hyperlink ref="O22" r:id="rId14"/>
+    <hyperlink ref="O23" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1717,6 +2088,16 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1726,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,203 +2138,305 @@
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="E7" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>113</v>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f33UPPachuca.xlsx
+++ b/xlsx/a69_f33UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>45749</t>
   </si>
@@ -240,172 +240,161 @@
     <t>Denominación o razón social con quien se celebra</t>
   </si>
   <si>
+    <t xml:space="preserve"> Dirección de Vinculación y Extensión y Abogado General (UPP)</t>
+  </si>
+  <si>
+    <t>General de Colaboración</t>
+  </si>
+  <si>
     <t>Específico de Colaboración</t>
   </si>
   <si>
     <t>Dirección de Vinculación y Extensión</t>
   </si>
   <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para lograr conjuntamente el máximo aprovechamiento de sus recursos humanos y materiales en el desarrollo de actividades académicas, científicas y culturales de interés y beneficio mutuo.</t>
+  </si>
+  <si>
     <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas.</t>
   </si>
   <si>
-    <t>Dirección de Vinculación y Extensión y Abogado General (UPP)</t>
-  </si>
-  <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco respecto a los convenios descritos en este rubro es debido a que no se públican en el DOF, así mismo no generan costo para la UPP, los campos vacios no aplican para la celebración de los convenios.</t>
   </si>
   <si>
-    <t>General de Colaboración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATRICIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OROZCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINEZ </t>
-  </si>
-  <si>
-    <t>SRO140827QF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISRAEL JORGE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FÉLIX </t>
-  </si>
-  <si>
-    <t>SOTO</t>
-  </si>
-  <si>
-    <t>MMR200413DJ5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYRNA ROCÍO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONCADA </t>
-  </si>
-  <si>
-    <t>MAHUEM</t>
-  </si>
-  <si>
-    <t>IAA071231BS8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA </t>
-  </si>
-  <si>
-    <t>AHUMADA</t>
-  </si>
-  <si>
-    <t>TETJ680109R41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSÉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLÍS </t>
-  </si>
-  <si>
-    <t>RAMÍREZ</t>
-  </si>
-  <si>
-    <t>UAC771230-988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMANDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERNÁNDEZ </t>
-  </si>
-  <si>
-    <t>TELLO</t>
-  </si>
-  <si>
-    <t>CEP990629K16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTAÑO </t>
-  </si>
-  <si>
-    <t>JARILLO</t>
-  </si>
-  <si>
-    <t>AGR0704112M3</t>
-  </si>
-  <si>
-    <t>JAIME REYES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANCASTER </t>
-  </si>
-  <si>
-    <t>JONES</t>
-  </si>
-  <si>
-    <t>IMC9701024T5</t>
-  </si>
-  <si>
-    <t>MTB8501013R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESÁREO JORGE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MÁRQUEZ </t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sPPlKuk1pKM-LVYysVAzQVbHYhLV8g4G/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1uf6DeZ24C1sphFo6tb8ejf5lJYfxB2ax/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1R20qxdKRw-zbE4QwKsyQ4KqtfOx0a4fn/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MK6l7g0UyRB3HD1QETjn3hS5UHC2bAXT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1MTqu3qKZnFfBjxvfjHDQwWY3tvEN0Ged/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RuFwLth3PHSaL_rmRqtfv5oNXRan1UFZ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1OBR4U8REHsaPhijmgK9NQgnIUnKT4gJX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1DN6dF-Ljrkynw278VXtsxxPHMOGVps6I/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1TFUv9TJ4XEdBI0nZI_ViYQ7FYMzbmLXx/view?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para lograr conjuntamente el máximo aprovechamiento de sus recursos humanos y materiales en el desarrollo de actividades académicas, científicas y culturales de interés y beneficio mutuo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-"Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para lograr conjuntamente el máximo aprovechamiento de sus recursos humanos y materiales en el desarrollo de actividades académicas, científicas y culturales de interés y beneficio mutuo.</t>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodríguez </t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>UPN200912T90</t>
+  </si>
+  <si>
+    <t>UPN200912T91</t>
+  </si>
+  <si>
+    <t>ZACM6903185I5</t>
+  </si>
+  <si>
+    <t>Mario Berto</t>
+  </si>
+  <si>
+    <t>Zavala</t>
+  </si>
+  <si>
+    <t>Chavez</t>
+  </si>
+  <si>
+    <t>CRP090511HY5</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Segura</t>
+  </si>
+  <si>
+    <t>Cuervo</t>
+  </si>
+  <si>
+    <t>PLO151001KT9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t>Aviles</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>UDE1707101W3</t>
+  </si>
+  <si>
+    <t>Ana Elisa</t>
+  </si>
+  <si>
+    <t>Santillan</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>KSC070713IIA</t>
+  </si>
+  <si>
+    <t>Luis Carlos</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Arreola</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>ISS600101-5A3</t>
+  </si>
+  <si>
+    <t>PLU060407HC9</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Y Gonzalez</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/1.-CG_Universidad%20Polit%C3%A9cnica%20de%20Nochixtl%C3%A1n_10%20de%20enero.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/2.-CE_Universidad%20Polit%C3%A9cnica%20de%20Nochixtl%C3%A1n_10%20de%20enero.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/3.-CE_DISE%C3%91O%20TECNICO%20DE%20MEXICO%20ZAVALA_S.A.%20DE%20C.V.%20%28DITEMZA%29_18%20febrero.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/4.-CE_Hotel%20Camino%20Real%20de%20Pachuca_16%20febrero.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/5.-CE_PEMEX%20LOGISTICA%20TERMINAL%20DE%20ALMACENAMIENTO%20Y%20DESPACHO%20PACHUCA_21%20febrero.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/6.-CE_Universidad%20Digital%20de%20Hidalgo_UNIDEH_21%20febrero.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/7.-CE_KENMAR%20SOLUCIONES%20CORPORATIVAS%20S.%20A.%20DE%20C.%20V._21%20febrero.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/8.-CE_ISSSTE%20%28Ingenier%C3%ADas%29_11%20marzo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/9.-CE_ISSSTE%20%28TF%29_11%20marzo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/10.-%20CE_PLURIONE%20S.A.%20DE%20C.V._18%20marzo.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -418,27 +407,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -493,60 +466,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,34 +791,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.85546875" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" customWidth="1"/>
     <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="94.42578125" customWidth="1"/>
+    <col min="15" max="15" width="109.140625" customWidth="1"/>
     <col min="16" max="16" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51" customWidth="1"/>
+    <col min="20" max="20" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -865,38 +827,38 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1023,569 +985,629 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:20" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="M8" s="3">
+        <v>45667</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S8" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44571</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3">
+        <v>44571</v>
+      </c>
+      <c r="M9" s="3">
+        <v>45667</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S9" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44597</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3">
+        <v>44597</v>
+      </c>
+      <c r="M10" s="3">
+        <v>46424</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S10" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44608</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3">
+        <v>44608</v>
+      </c>
+      <c r="M11" s="3">
+        <v>45704</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="4">
-        <v>44473</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="R11" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S11" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44613</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="3">
+        <v>44613</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44978</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S12" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44613</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3">
+        <v>44613</v>
+      </c>
+      <c r="M13" s="3">
+        <v>46439</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S13" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44624</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3">
+        <v>44624</v>
+      </c>
+      <c r="M14" s="3">
+        <v>44989</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S14" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="F15" s="3">
+        <v>44631</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3">
+        <v>44631</v>
+      </c>
+      <c r="M15" s="3">
+        <v>44996</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S15" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4">
-        <v>44473</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="F16" s="3">
+        <v>44631</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3">
+        <v>44631</v>
+      </c>
+      <c r="M16" s="3">
+        <v>44996</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S16" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44638</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="4">
-        <v>44474</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4">
-        <v>44474</v>
-      </c>
-      <c r="M9" s="4">
-        <v>45570</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3">
+        <v>44638</v>
+      </c>
+      <c r="M17" s="3">
+        <v>46464</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="4">
-        <v>44476</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4">
-        <v>44476</v>
-      </c>
-      <c r="M10" s="4">
-        <v>45206</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="4">
-        <v>44476</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4">
-        <v>44476</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S11" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="4">
-        <v>44480</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4">
-        <v>44480</v>
-      </c>
-      <c r="M12" s="4">
-        <v>45576</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S12" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="4">
-        <v>44505</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4">
-        <v>44505</v>
-      </c>
-      <c r="M13" s="4">
-        <v>45601</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S13" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B14" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C14" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="4">
-        <v>44516</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4">
-        <v>44516</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S14" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C15" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="4">
-        <v>44530</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4">
-        <v>44530</v>
-      </c>
-      <c r="M15" s="4">
-        <v>46356</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S15" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C16" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4">
-        <v>44538</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="3">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4">
-        <v>44538</v>
-      </c>
-      <c r="M16" s="4">
-        <v>45634</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S16" s="4">
-        <v>44571</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>75</v>
+      <c r="R17" s="3">
+        <v>44659</v>
+      </c>
+      <c r="S17" s="3">
+        <v>44659</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1621,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D200">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -1613,9 +1635,10 @@
     <hyperlink ref="O14" r:id="rId7"/>
     <hyperlink ref="O15" r:id="rId8"/>
     <hyperlink ref="O16" r:id="rId9"/>
+    <hyperlink ref="O17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1664,9 +1687,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1708,173 +1731,190 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f33UPPachuca.xlsx
+++ b/xlsx/a69_f33UPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
   <si>
     <t>45749</t>
   </si>
@@ -243,151 +243,135 @@
     <t xml:space="preserve"> Dirección de Vinculación y Extensión y Abogado General (UPP)</t>
   </si>
   <si>
-    <t>General de Colaboración</t>
-  </si>
-  <si>
     <t>Específico de Colaboración</t>
   </si>
   <si>
     <t>Dirección de Vinculación y Extensión</t>
   </si>
   <si>
-    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para lograr conjuntamente el máximo aprovechamiento de sus recursos humanos y materiales en el desarrollo de actividades académicas, científicas y culturales de interés y beneficio mutuo.</t>
-  </si>
-  <si>
     <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que estudiantes de la “UPP” puedan realizar su Estancia, Estadía Profesional, Servicio Social y/o Visitas Industriales, Académicas y Técnicas.</t>
   </si>
   <si>
-    <t>Los criterios e hipervínculos que se encuentran en blanco respecto a los convenios descritos en este rubro es debido a que no se públican en el DOF, así mismo no generan costo para la UPP, los campos vacios no aplican para la celebración de los convenios.</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodríguez </t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>UPN200912T90</t>
-  </si>
-  <si>
-    <t>UPN200912T91</t>
-  </si>
-  <si>
-    <t>ZACM6903185I5</t>
-  </si>
-  <si>
-    <t>Mario Berto</t>
-  </si>
-  <si>
-    <t>Zavala</t>
-  </si>
-  <si>
-    <t>Chavez</t>
-  </si>
-  <si>
-    <t>CRP090511HY5</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>Segura</t>
-  </si>
-  <si>
-    <t>Cuervo</t>
-  </si>
-  <si>
-    <t>PLO151001KT9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge </t>
-  </si>
-  <si>
-    <t>Aviles</t>
-  </si>
-  <si>
-    <t>Reyes</t>
-  </si>
-  <si>
-    <t>UDE1707101W3</t>
-  </si>
-  <si>
-    <t>Ana Elisa</t>
-  </si>
-  <si>
-    <t>Santillan</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>KSC070713IIA</t>
-  </si>
-  <si>
-    <t>Luis Carlos</t>
-  </si>
-  <si>
-    <t>Franco</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Arreola</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>ISS600101-5A3</t>
-  </si>
-  <si>
-    <t>PLU060407HC9</t>
-  </si>
-  <si>
-    <t>Ignacio</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Y Gonzalez</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/1.-CG_Universidad%20Polit%C3%A9cnica%20de%20Nochixtl%C3%A1n_10%20de%20enero.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/2.-CE_Universidad%20Polit%C3%A9cnica%20de%20Nochixtl%C3%A1n_10%20de%20enero.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/3.-CE_DISE%C3%91O%20TECNICO%20DE%20MEXICO%20ZAVALA_S.A.%20DE%20C.V.%20%28DITEMZA%29_18%20febrero.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/4.-CE_Hotel%20Camino%20Real%20de%20Pachuca_16%20febrero.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/5.-CE_PEMEX%20LOGISTICA%20TERMINAL%20DE%20ALMACENAMIENTO%20Y%20DESPACHO%20PACHUCA_21%20febrero.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/6.-CE_Universidad%20Digital%20de%20Hidalgo_UNIDEH_21%20febrero.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/7.-CE_KENMAR%20SOLUCIONES%20CORPORATIVAS%20S.%20A.%20DE%20C.%20V._21%20febrero.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/8.-CE_ISSSTE%20%28Ingenier%C3%ADas%29_11%20marzo.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/9.-CE_ISSSTE%20%28TF%29_11%20marzo.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f33%20Convenios/10.-%20CE_PLURIONE%20S.A.%20DE%20C.V._18%20marzo.pdf</t>
+    <t>Establecer las bases y mecanismos de colaboración entre “las partes” para la realización de las actividades académicas del internado médico de pregrado de estudiantes de la licenciatura en médico cirujano de “LA UPP” en las instalaciones de “EL HRAEZ” con el objetivo de contribuir al desarrollo académico de los estudiantes como parte de su capacitación como profesionales de la salud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.- Acordar la estructura académico-administrativa para el desarrollo del servicio social y contribuir a la capacitación profesional de los alumnos. 
+II.- Adoptar en forma conjunta las recomendaciones que la comisión interinstitucional para la formación de recursos humanos para la salud emita en relación con el servicio social.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“LAS PARTES” que el objeto del presente convenio es establecer las bases para llevar a cabo un programa de difusión permanente en materia de financiamiento educativo. </t>
+  </si>
+  <si>
+    <t>Establecer las bases y mecanismos de colaboración entre “LAS PARTES”, para que de 15 a 30 estudiantes de la “UPP” puedan realizar su actividad extracurricular en el “KRONOS GYM”, durante los periodos mayo – agosto 2022, septiembre – diciembre 2022, enero –abril 2023, lo anterior en coordinación con el departamento de actividades culturales y deportivas.</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>Reynosa</t>
+  </si>
+  <si>
+    <t>ASI1602178C4</t>
+  </si>
+  <si>
+    <t>HRA070808H31</t>
+  </si>
+  <si>
+    <t>PESE6710069J6</t>
+  </si>
+  <si>
+    <t>SAG060425FE2</t>
+  </si>
+  <si>
+    <t>SDN8501014D-2</t>
+  </si>
+  <si>
+    <t>DDI911127IG2</t>
+  </si>
+  <si>
+    <t>ICEO30729R52</t>
+  </si>
+  <si>
+    <t>María José</t>
+  </si>
+  <si>
+    <t>Pecero</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Eladio Miguel</t>
+  </si>
+  <si>
+    <t>Peredo</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>José Arnulfo</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Valdez</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Escalante</t>
+  </si>
+  <si>
+    <t>Piña</t>
+  </si>
+  <si>
+    <t>Carlos Gerardo</t>
+  </si>
+  <si>
+    <t>Urtecho</t>
+  </si>
+  <si>
+    <t>Rejon</t>
+  </si>
+  <si>
+    <t>Jalim</t>
+  </si>
+  <si>
+    <t>Buloz</t>
+  </si>
+  <si>
+    <t>Kuris</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/33/1.-CE_ABC%20SIVMED%20S.A.%20de%20C.V._4%20marzo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/33/2.-%20CE_%20Hospital%20Regional%20de%20Alta%20Especialidad%20de%20Zumpango%20%28Licenciatura%20en%20M%C3%A9dico%20Cirujano%29_8%20abril.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/33/3.-%20KRONOS%20GYM_2%20mayo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/33/4.-%20LA%20SECRETARIA%20DE%20AGRICULTURA%20Y%20DESARROLLO%20RURAL%20%28SADER%29_4%20de%20mayo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/33/5.-CE_HOSPITAL%20MILITAR%20REGIONAL%20DE%20ESPECIALIDADES%20DE%20MAZATL%C3%81N%20SINALOA_4%20de%20mayo%20%28julio%202023%29.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/33/6.-DESARROLLOS%20DINE%20SA%20DE%20CV%20%28Hotel%20Grand%20Palladium%20M%C3%A9xico%29%20_30%20mayo.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/33/7.-CE_INSTITUTO%20HIDALGUENSE%20DE%20FINANCIAMIENTO%20A%20LA%20EDUCACI%C3%93N%20SUPERIOR%20%28IHFES%29_14%20junio.pdf</t>
+  </si>
+  <si>
+    <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requiere la celebración de este convenio.</t>
   </si>
 </sst>
 </file>
@@ -407,11 +391,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -468,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -482,34 +468,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -526,6 +511,6891 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="30308550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="30308550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="30308550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="30308550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="30308550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="30308550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="33356550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="33356550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="33356550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="33356550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="33356550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="33356550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="31832550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="34118550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="37938075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="37938075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="37938075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="37938075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="37938075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="37938075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="39081075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="39081075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="39081075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="39081075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="39081075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10410825" y="39081075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="16192500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="16192500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="16192500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="16192500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="16192500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="16192500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="20764500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="23637875"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17716500" y="26003250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,10 +7661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,12 +7683,12 @@
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="109.140625" customWidth="1"/>
+    <col min="15" max="15" width="84.28515625" customWidth="1"/>
     <col min="16" max="16" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="44.7109375" customWidth="1"/>
+    <col min="20" max="20" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
@@ -827,38 +7697,38 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -985,28 +7855,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
     </row>
     <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1075,539 +7945,375 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="3">
-        <v>44571</v>
+      <c r="F8" s="7">
+        <v>44655</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>75</v>
+      <c r="I8" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3">
-        <v>44571</v>
-      </c>
-      <c r="M8" s="3">
-        <v>45667</v>
+      <c r="L8" s="7">
+        <v>44655</v>
+      </c>
+      <c r="M8" s="7">
+        <v>44808</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="12" t="s">
-        <v>111</v>
+      <c r="O8" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>77</v>
+        <v>44753</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44659</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" s="3">
-        <v>44571</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="3">
-        <v>44571</v>
-      </c>
-      <c r="M9" s="3">
-        <v>45667</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" s="6"/>
+      <c r="I9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="7">
+        <v>44659</v>
+      </c>
+      <c r="M9" s="7">
+        <v>45755</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R9" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S9" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>77</v>
+        <v>44753</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="6" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="6" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44683</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F10" s="3">
-        <v>44597</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="3">
-        <v>44597</v>
-      </c>
-      <c r="M10" s="3">
-        <v>46424</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" s="6"/>
+      <c r="I10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="7">
+        <v>44683</v>
+      </c>
+      <c r="M10" s="7">
+        <v>45020</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R10" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S10" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>77</v>
+        <v>44753</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="6" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="6" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44685</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="3">
-        <v>44608</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="5">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="3">
-        <v>44608</v>
-      </c>
-      <c r="M11" s="3">
-        <v>45704</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="P11" s="6"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="7">
+        <v>44685</v>
+      </c>
+      <c r="M11" s="7">
+        <v>45781</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R11" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>77</v>
+        <v>44753</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2022</v>
       </c>
       <c r="B12" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C12" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="6" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44685</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="3">
-        <v>44613</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>5</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="3">
-        <v>44613</v>
-      </c>
-      <c r="M12" s="3">
-        <v>44978</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="P12" s="6"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="7">
+        <v>44685</v>
+      </c>
+      <c r="M12" s="7">
+        <v>45138</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R12" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>77</v>
+        <v>44753</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="6" customFormat="1" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="6" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44711</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="3">
-        <v>44613</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="5">
+        <v>6</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="3">
-        <v>44613</v>
-      </c>
-      <c r="M13" s="3">
-        <v>46439</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="7">
+        <v>44711</v>
+      </c>
+      <c r="M13" s="7">
+        <v>45138</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R13" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S13" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>77</v>
+        <v>44753</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="6" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="6" t="s">
+        <v>44742</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44726</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3">
-        <v>44624</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>7</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="3">
-        <v>44624</v>
-      </c>
-      <c r="M14" s="3">
-        <v>44989</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="6"/>
+      <c r="I14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="7">
+        <v>44726</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R14" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="S14" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44631</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="7">
-        <v>8</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="3">
-        <v>44631</v>
-      </c>
-      <c r="M15" s="3">
-        <v>44996</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R15" s="3">
-        <v>44659</v>
-      </c>
-      <c r="S15" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44631</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="3">
-        <v>44631</v>
-      </c>
-      <c r="M16" s="3">
-        <v>44996</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R16" s="3">
-        <v>44659</v>
-      </c>
-      <c r="S16" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44638</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="3">
-        <v>44638</v>
-      </c>
-      <c r="M17" s="3">
-        <v>46464</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R17" s="3">
-        <v>44659</v>
-      </c>
-      <c r="S17" s="3">
-        <v>44659</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>77</v>
+        <v>44753</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +8327,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D14">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -1633,12 +8339,10 @@
     <hyperlink ref="O12" r:id="rId5"/>
     <hyperlink ref="O13" r:id="rId6"/>
     <hyperlink ref="O14" r:id="rId7"/>
-    <hyperlink ref="O15" r:id="rId8"/>
-    <hyperlink ref="O16" r:id="rId9"/>
-    <hyperlink ref="O17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1687,10 +8391,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,173 +8452,122 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>81</v>
+      <c r="E4" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>82</v>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>87</v>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>91</v>
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>95</v>
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>107</v>
+      <c r="E10" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f33UPPachuca.xlsx
+++ b/xlsx/a69_f33UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maydeli\Documents\TRANSPARENCIA\UPP 2DO TRI 2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -528,7 +523,7 @@
         <xdr:cNvPr id="2" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -571,7 +566,7 @@
         <xdr:cNvPr id="3" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -614,7 +609,7 @@
         <xdr:cNvPr id="4" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,7 +652,7 @@
         <xdr:cNvPr id="5" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +695,7 @@
         <xdr:cNvPr id="6" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +738,7 @@
         <xdr:cNvPr id="7" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -786,7 +781,7 @@
         <xdr:cNvPr id="8" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +824,7 @@
         <xdr:cNvPr id="9" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +867,7 @@
         <xdr:cNvPr id="10" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,7 +910,7 @@
         <xdr:cNvPr id="11" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +953,7 @@
         <xdr:cNvPr id="12" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +996,7 @@
         <xdr:cNvPr id="13" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1039,7 @@
         <xdr:cNvPr id="14" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,7 +1082,7 @@
         <xdr:cNvPr id="15" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1125,7 @@
         <xdr:cNvPr id="16" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1168,7 @@
         <xdr:cNvPr id="17" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1211,7 @@
         <xdr:cNvPr id="18" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1254,7 @@
         <xdr:cNvPr id="19" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,7 +1297,7 @@
         <xdr:cNvPr id="20" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1340,7 @@
         <xdr:cNvPr id="21" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1383,7 @@
         <xdr:cNvPr id="22" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1431,7 +1426,7 @@
         <xdr:cNvPr id="23" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1469,7 @@
         <xdr:cNvPr id="24" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1512,7 @@
         <xdr:cNvPr id="25" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1555,7 @@
         <xdr:cNvPr id="26" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1598,7 @@
         <xdr:cNvPr id="27" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1641,7 @@
         <xdr:cNvPr id="28" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1684,7 @@
         <xdr:cNvPr id="29" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1727,7 @@
         <xdr:cNvPr id="30" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1770,7 @@
         <xdr:cNvPr id="31" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1813,7 @@
         <xdr:cNvPr id="32" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1856,7 @@
         <xdr:cNvPr id="33" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1899,7 @@
         <xdr:cNvPr id="34" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1942,7 @@
         <xdr:cNvPr id="35" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1985,7 @@
         <xdr:cNvPr id="36" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2028,7 @@
         <xdr:cNvPr id="37" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2071,7 @@
         <xdr:cNvPr id="38" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2114,7 @@
         <xdr:cNvPr id="39" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2157,7 @@
         <xdr:cNvPr id="40" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2200,7 @@
         <xdr:cNvPr id="41" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2243,7 @@
         <xdr:cNvPr id="42" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2286,7 @@
         <xdr:cNvPr id="43" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2329,7 @@
         <xdr:cNvPr id="44" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2372,7 @@
         <xdr:cNvPr id="45" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2415,7 @@
         <xdr:cNvPr id="46" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2458,7 @@
         <xdr:cNvPr id="47" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2501,7 @@
         <xdr:cNvPr id="48" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2544,7 @@
         <xdr:cNvPr id="49" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2587,7 @@
         <xdr:cNvPr id="50" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,7 +2630,7 @@
         <xdr:cNvPr id="51" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2673,7 @@
         <xdr:cNvPr id="52" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2716,7 @@
         <xdr:cNvPr id="53" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2759,7 @@
         <xdr:cNvPr id="54" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2802,7 @@
         <xdr:cNvPr id="55" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2845,7 @@
         <xdr:cNvPr id="56" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2888,7 @@
         <xdr:cNvPr id="57" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2931,7 @@
         <xdr:cNvPr id="58" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2974,7 @@
         <xdr:cNvPr id="59" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3022,7 +3017,7 @@
         <xdr:cNvPr id="60" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3060,7 @@
         <xdr:cNvPr id="61" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3103,7 @@
         <xdr:cNvPr id="62" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3146,7 @@
         <xdr:cNvPr id="63" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3189,7 @@
         <xdr:cNvPr id="64" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3237,7 +3232,7 @@
         <xdr:cNvPr id="65" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3275,7 @@
         <xdr:cNvPr id="66" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3318,7 @@
         <xdr:cNvPr id="67" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3366,7 +3361,7 @@
         <xdr:cNvPr id="68" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3404,7 @@
         <xdr:cNvPr id="69" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3447,7 @@
         <xdr:cNvPr id="70" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3495,7 +3490,7 @@
         <xdr:cNvPr id="71" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3538,7 +3533,7 @@
         <xdr:cNvPr id="72" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3581,7 +3576,7 @@
         <xdr:cNvPr id="73" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3624,7 +3619,7 @@
         <xdr:cNvPr id="74" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3662,7 @@
         <xdr:cNvPr id="75" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3710,7 +3705,7 @@
         <xdr:cNvPr id="76" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +3748,7 @@
         <xdr:cNvPr id="77" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3796,7 +3791,7 @@
         <xdr:cNvPr id="78" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +3834,7 @@
         <xdr:cNvPr id="79" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3882,7 +3877,7 @@
         <xdr:cNvPr id="80" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,7 +3920,7 @@
         <xdr:cNvPr id="81" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3963,7 @@
         <xdr:cNvPr id="82" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4011,7 +4006,7 @@
         <xdr:cNvPr id="83" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4054,7 +4049,7 @@
         <xdr:cNvPr id="84" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,7 +4092,7 @@
         <xdr:cNvPr id="85" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4140,7 +4135,7 @@
         <xdr:cNvPr id="86" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4183,7 +4178,7 @@
         <xdr:cNvPr id="87" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4226,7 +4221,7 @@
         <xdr:cNvPr id="88" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4269,7 +4264,7 @@
         <xdr:cNvPr id="89" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4312,7 +4307,7 @@
         <xdr:cNvPr id="90" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4355,7 +4350,7 @@
         <xdr:cNvPr id="91" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4398,7 +4393,7 @@
         <xdr:cNvPr id="92" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4436,7 @@
         <xdr:cNvPr id="93" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4484,7 +4479,7 @@
         <xdr:cNvPr id="94" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4527,7 +4522,7 @@
         <xdr:cNvPr id="95" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4570,7 +4565,7 @@
         <xdr:cNvPr id="96" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4613,7 +4608,7 @@
         <xdr:cNvPr id="97" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,7 +4651,7 @@
         <xdr:cNvPr id="98" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4699,7 +4694,7 @@
         <xdr:cNvPr id="99" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4742,7 +4737,7 @@
         <xdr:cNvPr id="100" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4785,7 +4780,7 @@
         <xdr:cNvPr id="101" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4823,7 @@
         <xdr:cNvPr id="102" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4871,7 +4866,7 @@
         <xdr:cNvPr id="103" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +4909,7 @@
         <xdr:cNvPr id="104" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4957,7 +4952,7 @@
         <xdr:cNvPr id="105" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5000,7 +4995,7 @@
         <xdr:cNvPr id="106" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5043,7 +5038,7 @@
         <xdr:cNvPr id="107" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5086,7 +5081,7 @@
         <xdr:cNvPr id="108" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5129,7 +5124,7 @@
         <xdr:cNvPr id="109" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5172,7 +5167,7 @@
         <xdr:cNvPr id="110" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5215,7 +5210,7 @@
         <xdr:cNvPr id="111" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,7 +5253,7 @@
         <xdr:cNvPr id="112" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5301,7 +5296,7 @@
         <xdr:cNvPr id="113" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5339,7 @@
         <xdr:cNvPr id="114" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5387,7 +5382,7 @@
         <xdr:cNvPr id="115" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5425,7 @@
         <xdr:cNvPr id="116" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5473,7 +5468,7 @@
         <xdr:cNvPr id="117" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5516,7 +5511,7 @@
         <xdr:cNvPr id="118" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5559,7 +5554,7 @@
         <xdr:cNvPr id="119" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5602,7 +5597,7 @@
         <xdr:cNvPr id="120" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5645,7 +5640,7 @@
         <xdr:cNvPr id="121" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5688,7 +5683,7 @@
         <xdr:cNvPr id="122" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5731,7 +5726,7 @@
         <xdr:cNvPr id="123" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5774,7 +5769,7 @@
         <xdr:cNvPr id="124" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5817,7 +5812,7 @@
         <xdr:cNvPr id="125" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5860,7 +5855,7 @@
         <xdr:cNvPr id="126" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5903,7 +5898,7 @@
         <xdr:cNvPr id="127" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5946,7 +5941,7 @@
         <xdr:cNvPr id="128" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5989,7 +5984,7 @@
         <xdr:cNvPr id="129" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6032,7 +6027,7 @@
         <xdr:cNvPr id="130" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6075,7 +6070,7 @@
         <xdr:cNvPr id="131" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6118,7 +6113,7 @@
         <xdr:cNvPr id="132" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6161,7 +6156,7 @@
         <xdr:cNvPr id="133" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,7 +6199,7 @@
         <xdr:cNvPr id="134" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6247,7 +6242,7 @@
         <xdr:cNvPr id="135" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6290,7 +6285,7 @@
         <xdr:cNvPr id="136" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6333,7 +6328,7 @@
         <xdr:cNvPr id="137" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6376,7 +6371,7 @@
         <xdr:cNvPr id="138" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6419,7 +6414,7 @@
         <xdr:cNvPr id="139" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6462,7 +6457,7 @@
         <xdr:cNvPr id="140" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6505,7 +6500,7 @@
         <xdr:cNvPr id="141" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6548,7 +6543,7 @@
         <xdr:cNvPr id="142" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6591,7 +6586,7 @@
         <xdr:cNvPr id="143" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6634,7 +6629,7 @@
         <xdr:cNvPr id="144" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6677,7 +6672,7 @@
         <xdr:cNvPr id="145" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6720,7 +6715,7 @@
         <xdr:cNvPr id="146" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6763,7 +6758,7 @@
         <xdr:cNvPr id="147" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6806,7 +6801,7 @@
         <xdr:cNvPr id="148" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6849,7 +6844,7 @@
         <xdr:cNvPr id="149" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6892,7 +6887,7 @@
         <xdr:cNvPr id="150" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6935,7 +6930,7 @@
         <xdr:cNvPr id="151" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6978,7 +6973,7 @@
         <xdr:cNvPr id="152" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7021,7 +7016,7 @@
         <xdr:cNvPr id="153" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7064,7 +7059,7 @@
         <xdr:cNvPr id="154" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7107,7 +7102,7 @@
         <xdr:cNvPr id="155" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7150,7 +7145,7 @@
         <xdr:cNvPr id="156" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7193,7 +7188,7 @@
         <xdr:cNvPr id="157" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7236,7 +7231,7 @@
         <xdr:cNvPr id="158" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7279,7 +7274,7 @@
         <xdr:cNvPr id="159" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7322,7 +7317,7 @@
         <xdr:cNvPr id="160" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7365,7 +7360,7 @@
         <xdr:cNvPr id="161" name="AutoShape 14" descr="Resultado de imagen para LOGO DE LA SECRETARIA DE EDUCACION PUBLICA DE HIDALGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7653,7 +7648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7663,8 +7658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="O2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,7 +7678,7 @@
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
     <col min="14" max="14" width="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="84.28515625" customWidth="1"/>
+    <col min="15" max="15" width="169.5703125" customWidth="1"/>
     <col min="16" max="16" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
